--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ereg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ereg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ereg</t>
+  </si>
+  <si>
+    <t>Egfr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ereg</t>
-  </si>
-  <si>
-    <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.394007</v>
       </c>
       <c r="I2">
-        <v>0.5214871384232573</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="J2">
-        <v>0.5214871384232574</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>0.20673941297</v>
+        <v>0.2235240673914444</v>
       </c>
       <c r="R2">
-        <v>1.86065471673</v>
+        <v>2.011716606523</v>
       </c>
       <c r="S2">
-        <v>0.01055939838614024</v>
+        <v>0.01953399268894351</v>
       </c>
       <c r="T2">
-        <v>0.01055939838614025</v>
+        <v>0.01953399268894351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.394007</v>
       </c>
       <c r="I3">
-        <v>0.5214871384232573</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="J3">
-        <v>0.5214871384232574</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
         <v>8.208997548543</v>
@@ -638,10 +638,10 @@
         <v>73.88097793688701</v>
       </c>
       <c r="S3">
-        <v>0.4192818109553819</v>
+        <v>0.7173925383881588</v>
       </c>
       <c r="T3">
-        <v>0.419281810955382</v>
+        <v>0.7173925383881589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +670,40 @@
         <v>0.394007</v>
       </c>
       <c r="I4">
-        <v>0.5214871384232573</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="J4">
-        <v>0.5214871384232574</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>0.02402168744033333</v>
+        <v>0.05698247436100001</v>
       </c>
       <c r="R4">
-        <v>0.216195186963</v>
+        <v>0.5128422692490001</v>
       </c>
       <c r="S4">
-        <v>0.00122692893409071</v>
+        <v>0.004979755650278086</v>
       </c>
       <c r="T4">
-        <v>0.00122692893409071</v>
+        <v>0.004979755650278087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.394007</v>
       </c>
       <c r="I5">
-        <v>0.5214871384232573</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="J5">
-        <v>0.5214871384232574</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>1.757967211476222</v>
+        <v>2.097743700896</v>
       </c>
       <c r="R5">
-        <v>15.821704903286</v>
+        <v>18.879693308064</v>
       </c>
       <c r="S5">
-        <v>0.08978973031350909</v>
+        <v>0.183323928357203</v>
       </c>
       <c r="T5">
-        <v>0.08978973031350911</v>
+        <v>0.183323928357203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,40 +794,40 @@
         <v>0.394007</v>
       </c>
       <c r="I6">
-        <v>0.5214871384232573</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="J6">
-        <v>0.5214871384232574</v>
+        <v>0.9277061342889635</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.01232029244011111</v>
+        <v>0.02833151112055556</v>
       </c>
       <c r="R6">
-        <v>0.110882631961</v>
+        <v>0.254983600085</v>
       </c>
       <c r="S6">
-        <v>0.0006292698341354157</v>
+        <v>0.002475919204380212</v>
       </c>
       <c r="T6">
-        <v>0.0006292698341354158</v>
+        <v>0.002475919204380212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02001</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="H7">
-        <v>0.06002999999999999</v>
+        <v>0.030704</v>
       </c>
       <c r="I7">
-        <v>0.0794525805875229</v>
+        <v>0.07229386571103645</v>
       </c>
       <c r="J7">
-        <v>0.07945258058752291</v>
+        <v>0.07229386571103644</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>0.0314983413</v>
+        <v>0.01741868282844444</v>
       </c>
       <c r="R7">
-        <v>0.2834850717</v>
+        <v>0.156768145456</v>
       </c>
       <c r="S7">
-        <v>0.001608805643351511</v>
+        <v>0.001522236182406205</v>
       </c>
       <c r="T7">
-        <v>0.001608805643351511</v>
+        <v>0.001522236182406205</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02001</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="H8">
-        <v>0.06002999999999999</v>
+        <v>0.030704</v>
       </c>
       <c r="I8">
-        <v>0.0794525805875229</v>
+        <v>0.07229386571103645</v>
       </c>
       <c r="J8">
-        <v>0.07945258058752291</v>
+        <v>0.07229386571103644</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
-        <v>1.25070397947</v>
+        <v>0.639707062896</v>
       </c>
       <c r="R8">
-        <v>11.25633581523</v>
+        <v>5.757363566064</v>
       </c>
       <c r="S8">
-        <v>0.06388081204560216</v>
+        <v>0.05590464255373642</v>
       </c>
       <c r="T8">
-        <v>0.06388081204560218</v>
+        <v>0.05590464255373642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,46 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02001</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="H9">
-        <v>0.06002999999999999</v>
+        <v>0.030704</v>
       </c>
       <c r="I9">
-        <v>0.0794525805875229</v>
+        <v>0.07229386571103645</v>
       </c>
       <c r="J9">
-        <v>0.07945258058752291</v>
+        <v>0.07229386571103644</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>0.003659889029999999</v>
+        <v>0.004440504592000001</v>
       </c>
       <c r="R9">
-        <v>0.03293900127</v>
+        <v>0.039964541328</v>
       </c>
       <c r="S9">
-        <v>0.0001869320695151744</v>
+        <v>0.0003880601549874454</v>
       </c>
       <c r="T9">
-        <v>0.0001869320695151744</v>
+        <v>0.0003880601549874453</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02001</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="H10">
-        <v>0.06002999999999999</v>
+        <v>0.030704</v>
       </c>
       <c r="I10">
-        <v>0.0794525805875229</v>
+        <v>0.07229386571103645</v>
       </c>
       <c r="J10">
-        <v>0.07945258058752291</v>
+        <v>0.07229386571103644</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>0.26783983966</v>
+        <v>0.163472026112</v>
       </c>
       <c r="R10">
-        <v>2.41055855694</v>
+        <v>1.471248235008</v>
       </c>
       <c r="S10">
-        <v>0.01368015672493116</v>
+        <v>0.01428598450352293</v>
       </c>
       <c r="T10">
-        <v>0.01368015672493116</v>
+        <v>0.01428598450352293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,356 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02001</v>
+        <v>0.01023466666666667</v>
       </c>
       <c r="H11">
-        <v>0.06002999999999999</v>
+        <v>0.030704</v>
       </c>
       <c r="I11">
-        <v>0.0794525805875229</v>
+        <v>0.07229386571103645</v>
       </c>
       <c r="J11">
-        <v>0.07945258058752291</v>
+        <v>0.07229386571103644</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>0.00187709141</v>
+        <v>0.002207805235555556</v>
       </c>
       <c r="R11">
-        <v>0.01689382269</v>
+        <v>0.01987024712</v>
       </c>
       <c r="S11">
-        <v>9.587410412289375E-05</v>
+        <v>0.00019294231638344</v>
       </c>
       <c r="T11">
-        <v>9.587410412289378E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1005026666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.301508</v>
-      </c>
-      <c r="I12">
-        <v>0.3990602809892197</v>
-      </c>
-      <c r="J12">
-        <v>0.3990602809892198</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.57413</v>
-      </c>
-      <c r="N12">
-        <v>4.72239</v>
-      </c>
-      <c r="O12">
-        <v>0.02024862668342525</v>
-      </c>
-      <c r="P12">
-        <v>0.02024862668342525</v>
-      </c>
-      <c r="Q12">
-        <v>0.15820426268</v>
-      </c>
-      <c r="R12">
-        <v>1.42383836412</v>
-      </c>
-      <c r="S12">
-        <v>0.008080422653933491</v>
-      </c>
-      <c r="T12">
-        <v>0.008080422653933491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1005026666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.301508</v>
-      </c>
-      <c r="I13">
-        <v>0.3990602809892197</v>
-      </c>
-      <c r="J13">
-        <v>0.3990602809892198</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>62.503947</v>
-      </c>
-      <c r="N13">
-        <v>187.511841</v>
-      </c>
-      <c r="O13">
-        <v>0.804011796385049</v>
-      </c>
-      <c r="P13">
-        <v>0.8040117963850492</v>
-      </c>
-      <c r="Q13">
-        <v>6.281813350692</v>
-      </c>
-      <c r="R13">
-        <v>56.536320156228</v>
-      </c>
-      <c r="S13">
-        <v>0.320849173384065</v>
-      </c>
-      <c r="T13">
-        <v>0.320849173384065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1005026666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.301508</v>
-      </c>
-      <c r="I14">
-        <v>0.3990602809892197</v>
-      </c>
-      <c r="J14">
-        <v>0.3990602809892198</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.182903</v>
-      </c>
-      <c r="N14">
-        <v>0.548709</v>
-      </c>
-      <c r="O14">
-        <v>0.002352750132631058</v>
-      </c>
-      <c r="P14">
-        <v>0.002352750132631058</v>
-      </c>
-      <c r="Q14">
-        <v>0.01838223924133333</v>
-      </c>
-      <c r="R14">
-        <v>0.165440153172</v>
-      </c>
-      <c r="S14">
-        <v>0.0009388891290251741</v>
-      </c>
-      <c r="T14">
-        <v>0.0009388891290251742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1005026666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.301508</v>
-      </c>
-      <c r="I15">
-        <v>0.3990602809892197</v>
-      </c>
-      <c r="J15">
-        <v>0.3990602809892198</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>13.38529933333333</v>
-      </c>
-      <c r="N15">
-        <v>40.155898</v>
-      </c>
-      <c r="O15">
-        <v>0.1721801434738983</v>
-      </c>
-      <c r="P15">
-        <v>0.1721801434738983</v>
-      </c>
-      <c r="Q15">
-        <v>1.345258277131556</v>
-      </c>
-      <c r="R15">
-        <v>12.107324494184</v>
-      </c>
-      <c r="S15">
-        <v>0.068710256435458</v>
-      </c>
-      <c r="T15">
-        <v>0.06871025643545801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1005026666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.301508</v>
-      </c>
-      <c r="I16">
-        <v>0.3990602809892197</v>
-      </c>
-      <c r="J16">
-        <v>0.3990602809892198</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.09380766666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.281423</v>
-      </c>
-      <c r="O16">
-        <v>0.001206683324996365</v>
-      </c>
-      <c r="P16">
-        <v>0.001206683324996365</v>
-      </c>
-      <c r="Q16">
-        <v>0.009427920653777778</v>
-      </c>
-      <c r="R16">
-        <v>0.084851285884</v>
-      </c>
-      <c r="S16">
-        <v>0.0004815393867380552</v>
-      </c>
-      <c r="T16">
-        <v>0.0004815393867380553</v>
+        <v>0.00019294231638344</v>
       </c>
     </row>
   </sheetData>
